--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_234__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_234__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5447,7 +5447,7 @@
                   <c:v>97.62332153320312</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52.667724609375</c:v>
+                  <c:v>52.66772842407227</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>97.67501831054688</c:v>
@@ -5468,7 +5468,7 @@
                   <c:v>72.38170623779297</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.46408271789551</c:v>
+                  <c:v>14.46408367156982</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>98.96084594726562</c:v>
@@ -5480,13 +5480,13 @@
                   <c:v>56.27644729614258</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>62.72098922729492</c:v>
+                  <c:v>62.72099304199219</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53.22172164916992</c:v>
+                  <c:v>53.22171783447266</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>90.635009765625</c:v>
+                  <c:v>90.63499450683594</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>96.69578552246094</c:v>
@@ -5507,7 +5507,7 @@
                   <c:v>98.19473266601562</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>53.41193008422852</c:v>
+                  <c:v>53.41193389892578</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>79.64213562011719</c:v>
@@ -5516,7 +5516,7 @@
                   <c:v>96.80023193359375</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>84.84933471679688</c:v>
+                  <c:v>84.84934997558594</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>83.42666625976562</c:v>
@@ -5528,7 +5528,7 @@
                   <c:v>89.44232177734375</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>97.04969787597656</c:v>
+                  <c:v>97.0496826171875</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>57.86642837524414</c:v>
@@ -5537,7 +5537,7 @@
                   <c:v>93.99717712402344</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>36.94254302978516</c:v>
+                  <c:v>36.94254684448242</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>86.96371459960938</c:v>
@@ -5546,7 +5546,7 @@
                   <c:v>84.45755004882812</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>80.35678100585938</c:v>
+                  <c:v>80.35676574707031</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>92.06010437011719</c:v>
@@ -5558,16 +5558,16 @@
                   <c:v>83.97126770019531</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>96.33108520507812</c:v>
+                  <c:v>96.33110046386719</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>96.79066467285156</c:v>
+                  <c:v>96.7906494140625</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>83.15036010742188</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>84.13604736328125</c:v>
+                  <c:v>84.13603210449219</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>98.13520812988281</c:v>
@@ -5594,7 +5594,7 @@
                   <c:v>97.36674499511719</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>47.32063674926758</c:v>
+                  <c:v>47.32064056396484</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>85.90049743652344</c:v>
@@ -5603,7 +5603,7 @@
                   <c:v>98.013427734375</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>96.68911743164062</c:v>
+                  <c:v>96.68913269042969</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>96.98948669433594</c:v>
@@ -5612,7 +5612,7 @@
                   <c:v>85.36439514160156</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>97.77134704589844</c:v>
+                  <c:v>97.7713623046875</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>89.2828369140625</c:v>
@@ -5621,16 +5621,16 @@
                   <c:v>97.68809509277344</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>62.95401382446289</c:v>
+                  <c:v>62.95401763916016</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>82.03402709960938</c:v>
+                  <c:v>82.03404235839844</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>69.93685913085938</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>84.221435546875</c:v>
+                  <c:v>84.22145080566406</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>97.39279174804688</c:v>
@@ -5663,7 +5663,7 @@
                   <c:v>97.97392272949219</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>98.6806640625</c:v>
+                  <c:v>98.68067932128906</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>86.13383483886719</c:v>
@@ -6651,7 +6651,7 @@
         <v>50.2202</v>
       </c>
       <c r="F12">
-        <v>52.667724609375</v>
+        <v>52.66772842407227</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6791,7 +6791,7 @@
         <v>12.1498</v>
       </c>
       <c r="F19">
-        <v>14.46408271789551</v>
+        <v>14.46408367156982</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>63.2102</v>
       </c>
       <c r="F23">
-        <v>62.72098922729492</v>
+        <v>62.72099304199219</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>52.4045</v>
       </c>
       <c r="F24">
-        <v>53.22172164916992</v>
+        <v>53.22171783447266</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F25">
-        <v>90.635009765625</v>
+        <v>90.63499450683594</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>53.6367</v>
       </c>
       <c r="F32">
-        <v>53.41193008422852</v>
+        <v>53.41193389892578</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>86.1662</v>
       </c>
       <c r="F35">
-        <v>84.84933471679688</v>
+        <v>84.84934997558594</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>96.8449</v>
       </c>
       <c r="F39">
-        <v>97.04969787597656</v>
+        <v>97.0496826171875</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>38.6711</v>
       </c>
       <c r="F42">
-        <v>36.94254302978516</v>
+        <v>36.94254684448242</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>78.7594</v>
       </c>
       <c r="F45">
-        <v>80.35678100585938</v>
+        <v>80.35676574707031</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>96.76430000000001</v>
       </c>
       <c r="F49">
-        <v>96.33108520507812</v>
+        <v>96.33110046386719</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>97.4067</v>
       </c>
       <c r="F50">
-        <v>96.79066467285156</v>
+        <v>96.7906494140625</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>85.7353</v>
       </c>
       <c r="F52">
-        <v>84.13604736328125</v>
+        <v>84.13603210449219</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>46.5133</v>
       </c>
       <c r="F61">
-        <v>47.32063674926758</v>
+        <v>47.32064056396484</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>96.90470000000001</v>
       </c>
       <c r="F64">
-        <v>96.68911743164062</v>
+        <v>96.68913269042969</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>95.8539</v>
       </c>
       <c r="F67">
-        <v>97.77134704589844</v>
+        <v>97.7713623046875</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>62.6537</v>
       </c>
       <c r="F70">
-        <v>62.95401382446289</v>
+        <v>62.95401763916016</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>81.9267</v>
       </c>
       <c r="F71">
-        <v>82.03402709960938</v>
+        <v>82.03404235839844</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>82.6225</v>
       </c>
       <c r="F73">
-        <v>84.221435546875</v>
+        <v>84.22145080566406</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>97.5826</v>
       </c>
       <c r="F84">
-        <v>98.6806640625</v>
+        <v>98.68067932128906</v>
       </c>
     </row>
     <row r="85" spans="1:6">
